--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2517,7 +2517,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4496,7 +4496,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6459,7 +6459,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Edad-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>5036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1796</v>
+        <v>1932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11208</v>
+        <v>11168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01077245592384952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00384192280052232</v>
+        <v>0.004131691563149666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02397401380734633</v>
+        <v>0.02388973860980875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -778,19 +778,19 @@
         <v>5036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1917</v>
+        <v>1092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11249</v>
+        <v>10831</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005237366897011098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001993870337783721</v>
+        <v>0.001135438886577603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01169907595596135</v>
+        <v>0.01126418690824204</v>
       </c>
     </row>
     <row r="5">
@@ -820,19 +820,19 @@
         <v>462453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>456281</v>
+        <v>456321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>465693</v>
+        <v>465557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9892275440761504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9760259861926537</v>
+        <v>0.9761102613901913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9961580771994777</v>
+        <v>0.9958683084368504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>983</v>
@@ -841,19 +841,19 @@
         <v>956517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>950304</v>
+        <v>950722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>959636</v>
+        <v>960461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9947626331029888</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9883009240440388</v>
+        <v>0.988735813091758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9980061296622162</v>
+        <v>0.9988645611134224</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>5099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11140</v>
+        <v>11591</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006933149177326898</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002591404331707048</v>
+        <v>0.002577442721430563</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01514685036024116</v>
+        <v>0.01575895206293046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -966,19 +966,19 @@
         <v>7353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2875</v>
+        <v>2969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14458</v>
+        <v>15125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01175564400851142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004596303641791695</v>
+        <v>0.004746592436569321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02311524628415427</v>
+        <v>0.0241805714506085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -987,19 +987,19 @@
         <v>12452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6666</v>
+        <v>6930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21107</v>
+        <v>22347</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009149519238233438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004897711728757627</v>
+        <v>0.005091664831165812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01550896660366063</v>
+        <v>0.01641962283500146</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>730390</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>724349</v>
+        <v>723898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>733583</v>
+        <v>733593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9930668508226731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.984853149639759</v>
+        <v>0.9842410479370696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997408595668293</v>
+        <v>0.9974225572785694</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>584</v>
@@ -1037,19 +1037,19 @@
         <v>618141</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>611036</v>
+        <v>610369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>622619</v>
+        <v>622525</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9882443559914886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9768847537158458</v>
+        <v>0.9758194285493914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9954036963582082</v>
+        <v>0.9952534075634306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1282</v>
@@ -1058,19 +1058,19 @@
         <v>1348530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1339875</v>
+        <v>1338635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1354316</v>
+        <v>1354052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9908504807617665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844910333963396</v>
+        <v>0.9835803771649987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9951022882712425</v>
+        <v>0.9949083351688343</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>8786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4261</v>
+        <v>4301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16075</v>
+        <v>15993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01377868833600059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006683002462173043</v>
+        <v>0.006745119035632805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02520910063463066</v>
+        <v>0.02508114512446223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1183,19 +1183,19 @@
         <v>15800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8681</v>
+        <v>9378</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25157</v>
+        <v>25995</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0229063848028414</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01258646179678058</v>
+        <v>0.01359568799482081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03647268916524073</v>
+        <v>0.03768724046898396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1204,19 +1204,19 @@
         <v>24586</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15810</v>
+        <v>15917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35670</v>
+        <v>35940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01852164918159727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01191085933729548</v>
+        <v>0.01199107939078436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0268725448391881</v>
+        <v>0.02707539059922364</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>628863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621574</v>
+        <v>621656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>633388</v>
+        <v>633348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9862213116639994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9747908993653693</v>
+        <v>0.9749188548755375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.993316997537827</v>
+        <v>0.9932548809643671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>643</v>
@@ -1254,19 +1254,19 @@
         <v>673944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>664587</v>
+        <v>663749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681063</v>
+        <v>680366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9770936151971586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9635273108347594</v>
+        <v>0.9623127595310161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9874135382032195</v>
+        <v>0.9864043120051792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1246</v>
@@ -1275,19 +1275,19 @@
         <v>1302808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1291724</v>
+        <v>1291454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1311584</v>
+        <v>1311477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9814783508184027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9731274551608117</v>
+        <v>0.9729246094007761</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9880891406627045</v>
+        <v>0.9880089206092155</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>9433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4248</v>
+        <v>4214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17812</v>
+        <v>18462</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01817104804272307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008182524345063039</v>
+        <v>0.008116840285157583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03430959564055401</v>
+        <v>0.03556301730957687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1400,19 +1400,19 @@
         <v>20928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12870</v>
+        <v>13215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30668</v>
+        <v>30795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04058550934429433</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02495945919300813</v>
+        <v>0.0256287312281683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05947518673574654</v>
+        <v>0.05972198812827852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1421,19 +1421,19 @@
         <v>30361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20911</v>
+        <v>21067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44377</v>
+        <v>42255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02934031739549061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02020829492538853</v>
+        <v>0.02035826697647857</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0428849612425533</v>
+        <v>0.04083453776999994</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>509714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>501335</v>
+        <v>500685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514899</v>
+        <v>514933</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9818289519572769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.965690404359446</v>
+        <v>0.9644369826904231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9918174756549369</v>
+        <v>0.9918831597148424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -1471,19 +1471,19 @@
         <v>494714</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>484974</v>
+        <v>484847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>502772</v>
+        <v>502427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9594144906557056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9405248132642533</v>
+        <v>0.9402780118717216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9750405408069918</v>
+        <v>0.9743712687718317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>957</v>
@@ -1492,19 +1492,19 @@
         <v>1004428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>990412</v>
+        <v>992534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1013878</v>
+        <v>1013722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9706596826045094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9571150387574465</v>
+        <v>0.9591654622300001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9797917050746114</v>
+        <v>0.9796417330235215</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>9863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5337</v>
+        <v>5104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18854</v>
+        <v>17806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02550412525780628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01380026524109084</v>
+        <v>0.01319936780593394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04875360170720409</v>
+        <v>0.0460445371532878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1617,19 +1617,19 @@
         <v>25956</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18216</v>
+        <v>17654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37348</v>
+        <v>36827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06425011358371831</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04509083315797292</v>
+        <v>0.04369870027142519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09244887917843171</v>
+        <v>0.09115969040997522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1638,19 +1638,19 @@
         <v>35819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24484</v>
+        <v>25004</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04530040062172499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03096484691199942</v>
+        <v>0.03162326829086303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06184363007947094</v>
+        <v>0.06197108911202089</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>376847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>367856</v>
+        <v>368904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>381373</v>
+        <v>381606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9744958747421937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9512463982927959</v>
+        <v>0.9539554628467122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9861997347589091</v>
+        <v>0.986800632194066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>371</v>
@@ -1688,19 +1688,19 @@
         <v>378030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>366638</v>
+        <v>367159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>385770</v>
+        <v>386332</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9357498864162817</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9075511208215683</v>
+        <v>0.9088403095900248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9549091668420271</v>
+        <v>0.9563012997285748</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>753</v>
@@ -1709,19 +1709,19 @@
         <v>754877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>741796</v>
+        <v>741696</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>766212</v>
+        <v>765692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.954699599378275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9381563699205291</v>
+        <v>0.9380289108879791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9690351530880006</v>
+        <v>0.968376731709137</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>14981</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9516</v>
+        <v>8954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22961</v>
+        <v>22729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05120248436349527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03252462226890992</v>
+        <v>0.03060310349143197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07847698043465673</v>
+        <v>0.07768456865393195</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1834,19 +1834,19 @@
         <v>31101</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22061</v>
+        <v>21597</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42814</v>
+        <v>42370</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09069137669810044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0643309225891914</v>
+        <v>0.06297572688385411</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1248462630284384</v>
+        <v>0.1235519231556194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -1855,19 +1855,19 @@
         <v>46082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34644</v>
+        <v>34406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59357</v>
+        <v>59449</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07251125152680762</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05451373229208807</v>
+        <v>0.05413813143645402</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09340004947668627</v>
+        <v>0.09354430993572045</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>277602</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269622</v>
+        <v>269854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283067</v>
+        <v>283629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9487975156365047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9215230195653433</v>
+        <v>0.9223154313460681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9674753777310902</v>
+        <v>0.9693968965085682</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -1905,19 +1905,19 @@
         <v>311833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300120</v>
+        <v>300564</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320873</v>
+        <v>321337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9093086233018995</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8751537369715616</v>
+        <v>0.8764480768443809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9356690774108088</v>
+        <v>0.9370242731161459</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>624</v>
@@ -1926,19 +1926,19 @@
         <v>589435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>576160</v>
+        <v>576068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>600873</v>
+        <v>601111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9274887484731924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.906599950523314</v>
+        <v>0.9064556900642797</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.945486267707912</v>
+        <v>0.945861868563546</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>16761</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10496</v>
+        <v>9913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26047</v>
+        <v>26786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07985998724926147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05001093419034768</v>
+        <v>0.04723185820835134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1241001808687005</v>
+        <v>0.1276214262866466</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2051,19 +2051,19 @@
         <v>34499</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22597</v>
+        <v>23827</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47313</v>
+        <v>47865</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1033177426765161</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06767504032362963</v>
+        <v>0.07135836529700068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1416932781373931</v>
+        <v>0.1433483985446934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2072,19 +2072,19 @@
         <v>51260</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39373</v>
+        <v>39156</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65619</v>
+        <v>67119</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09426392558569043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07240414017325594</v>
+        <v>0.07200478895948589</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1206693634070933</v>
+        <v>0.1234284276699229</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>193122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>183836</v>
+        <v>183097</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>199387</v>
+        <v>199970</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9201400127507385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8758998191312997</v>
+        <v>0.8723785737133531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9499890658096524</v>
+        <v>0.9527681417916487</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>260</v>
@@ -2122,19 +2122,19 @@
         <v>299409</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>286595</v>
+        <v>286043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311311</v>
+        <v>310081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8966822573234838</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8583067218626069</v>
+        <v>0.8566516014553059</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9323249596763701</v>
+        <v>0.9286416347029992</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -2143,19 +2143,19 @@
         <v>492531</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478172</v>
+        <v>476672</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>504418</v>
+        <v>504635</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9057360744143096</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8793306365929066</v>
+        <v>0.8765715723300772</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.927595859826744</v>
+        <v>0.9279952110405142</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>64924</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01982082335587168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>136</v>
@@ -2268,19 +2268,19 @@
         <v>140672</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04162886767141676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>203</v>
@@ -2289,19 +2289,19 @@
         <v>205596</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03089471638371498</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3210601</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3193536</v>
+        <v>3192036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3226070</v>
+        <v>3225137</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9801791766441283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9749691212192364</v>
+        <v>0.9745113253826811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9849017260600111</v>
+        <v>0.9846168669949139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3161</v>
@@ -2339,19 +2339,19 @@
         <v>3238525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3212131</v>
+        <v>3210218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3260844</v>
+        <v>3260312</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9583711323285833</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.950560314827845</v>
+        <v>0.9499943394674798</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.964976001986498</v>
+        <v>0.9648185868898776</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6307</v>
@@ -2360,19 +2360,19 @@
         <v>6449126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6418774</v>
+        <v>6418502</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6476735</v>
+        <v>6477120</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.969105283616285</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9645442327398741</v>
+        <v>0.9645034654135275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9732540211752821</v>
+        <v>0.9733118186391676</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4105</v>
+        <v>4693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001805174164211381</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009059011960445756</v>
+        <v>0.01035752560056092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2728,19 +2728,19 @@
         <v>5862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11863</v>
+        <v>11903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01365244113671252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004599269101169368</v>
+        <v>0.004618983989573932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0276317943798474</v>
+        <v>0.02772307001538099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2749,19 +2749,19 @@
         <v>6679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2883</v>
+        <v>2847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13601</v>
+        <v>13672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007569271908142762</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003266909731710445</v>
+        <v>0.003225803248520061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01541294533557973</v>
+        <v>0.01549372173428642</v>
       </c>
     </row>
     <row r="5">
@@ -2778,7 +2778,7 @@
         <v>452287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449000</v>
+        <v>448412</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>453105</v>
@@ -2787,7 +2787,7 @@
         <v>0.9981948258357887</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9909409880395543</v>
+        <v>0.9896424743994393</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2799,19 +2799,19 @@
         <v>423477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417476</v>
+        <v>417436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427364</v>
+        <v>427356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9863475588632875</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9723682056201527</v>
+        <v>0.972276929984619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9954007308988306</v>
+        <v>0.9953810160104262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>858</v>
@@ -2820,19 +2820,19 @@
         <v>875766</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>868844</v>
+        <v>868773</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>879562</v>
+        <v>879598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9924307280918573</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9845870546644208</v>
+        <v>0.9845062782657135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967330902682896</v>
+        <v>0.9967741967514799</v>
       </c>
     </row>
     <row r="6">
@@ -2924,19 +2924,19 @@
         <v>6711</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16768</v>
+        <v>16911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009778717226143742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003793357985199882</v>
+        <v>0.003791392820670763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02443446314519458</v>
+        <v>0.02464305269330207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2945,19 +2945,19 @@
         <v>5716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13703</v>
+        <v>14099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009382669486222512</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002655465772630244</v>
+        <v>0.002664466819011659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02249220023022985</v>
+        <v>0.02314335838567525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -2966,19 +2966,19 @@
         <v>12427</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5700</v>
+        <v>6085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23346</v>
+        <v>23399</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00959246730800203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004400315834895991</v>
+        <v>0.004697365052674463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0180215572627629</v>
+        <v>0.01806205529129171</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>679527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>669470</v>
+        <v>669327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683635</v>
+        <v>683636</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9902212827738562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9755655368548056</v>
+        <v>0.9753569473066981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962066420148005</v>
+        <v>0.9962086071793292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>566</v>
@@ -3016,19 +3016,19 @@
         <v>603498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595511</v>
+        <v>595115</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>607596</v>
+        <v>607591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9906173305137775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9775077997697702</v>
+        <v>0.9768566416143245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973445342273698</v>
+        <v>0.9973355331809883</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1227</v>
@@ -3037,19 +3037,19 @@
         <v>1283024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1272105</v>
+        <v>1272052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1289751</v>
+        <v>1289366</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.990407532691998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9819784427372359</v>
+        <v>0.9819379447087075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.995599684165104</v>
+        <v>0.9953026349473254</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>15454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8045</v>
+        <v>7652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27171</v>
+        <v>27132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02275974317770671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01184773363248776</v>
+        <v>0.01126950989698789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04001472811897653</v>
+        <v>0.03995752959839192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3162,19 +3162,19 @@
         <v>31248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22334</v>
+        <v>20708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45167</v>
+        <v>43137</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04426480937620823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03163725066057022</v>
+        <v>0.02933347423710824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06398170370173051</v>
+        <v>0.06110570216337993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3183,19 +3183,19 @@
         <v>46702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35107</v>
+        <v>35617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62741</v>
+        <v>62499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03372120867289883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02534880777386491</v>
+        <v>0.0257168361972005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04530185513912274</v>
+        <v>0.04512690805423342</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>663570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>651853</v>
+        <v>651892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670979</v>
+        <v>671372</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9772402568222933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9599852718810233</v>
+        <v>0.960042470401608</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9881522663675117</v>
+        <v>0.9887304901030121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>632</v>
@@ -3233,19 +3233,19 @@
         <v>674687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>660768</v>
+        <v>662798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683601</v>
+        <v>685227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9557351906237918</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9360182962982695</v>
+        <v>0.93889429783662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683627493394298</v>
+        <v>0.9706665257628917</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1268</v>
@@ -3254,19 +3254,19 @@
         <v>1338257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1322218</v>
+        <v>1322460</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1349852</v>
+        <v>1349342</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9662787913271011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9546981448608778</v>
+        <v>0.9548730919457663</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9746511922261353</v>
+        <v>0.9742831638027994</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>14636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8115</v>
+        <v>7264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25939</v>
+        <v>26315</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02381384389299534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01320321572320808</v>
+        <v>0.01181810903898364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04220332227536621</v>
+        <v>0.04281555388543971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3379,19 +3379,19 @@
         <v>33603</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23114</v>
+        <v>23202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45440</v>
+        <v>48903</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05481261391484105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03770354392439074</v>
+        <v>0.03784584672954225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07412055438629994</v>
+        <v>0.07976836844024253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -3400,19 +3400,19 @@
         <v>48240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35384</v>
+        <v>35632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66879</v>
+        <v>64623</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03929355535495942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02882189610103279</v>
+        <v>0.02902405504782126</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05447581102889042</v>
+        <v>0.05263844092715255</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>599981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>588678</v>
+        <v>588302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>606502</v>
+        <v>607353</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9761861561070047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9577966777246335</v>
+        <v>0.9571844461145601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9867967842767918</v>
+        <v>0.9881818909610164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>507</v>
@@ -3450,19 +3450,19 @@
         <v>579455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>567618</v>
+        <v>564155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>589944</v>
+        <v>589856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.945187386085159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9258794456137001</v>
+        <v>0.9202316315597576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9622964560756093</v>
+        <v>0.9621541532704581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1043</v>
@@ -3471,19 +3471,19 @@
         <v>1179435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1160796</v>
+        <v>1163052</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1192291</v>
+        <v>1192043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9607064446450406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9455241889711096</v>
+        <v>0.9473615590728474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9711781038989672</v>
+        <v>0.9709759449521784</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>9684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4240</v>
+        <v>4384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18038</v>
+        <v>17777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02260887713824512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009898261439646779</v>
+        <v>0.01023564910457546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04211067081854666</v>
+        <v>0.0415027940763288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -3596,19 +3596,19 @@
         <v>33213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23777</v>
+        <v>23385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46039</v>
+        <v>45277</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07416898800152963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05309672661974988</v>
+        <v>0.05222105182925035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1028110330785175</v>
+        <v>0.101109987739223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -3617,19 +3617,19 @@
         <v>42897</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31362</v>
+        <v>31535</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58267</v>
+        <v>58311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04896142494680857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03579588613957622</v>
+        <v>0.03599276089182315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06650370405468653</v>
+        <v>0.06655367042747708</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>418660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410306</v>
+        <v>410567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>424104</v>
+        <v>423960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9773911228617549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9578893291814532</v>
+        <v>0.9584972059236716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9901017385603532</v>
+        <v>0.9897643508954245</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>375</v>
@@ -3667,19 +3667,19 @@
         <v>414587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>401761</v>
+        <v>402523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>424023</v>
+        <v>424415</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9258310119984704</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8971889669214824</v>
+        <v>0.8988900122607771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9469032733802502</v>
+        <v>0.9477789481707497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>758</v>
@@ -3688,19 +3688,19 @@
         <v>833247</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>817877</v>
+        <v>817833</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>844782</v>
+        <v>844609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9510385750531914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9334962959453135</v>
+        <v>0.9334463295725229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9642041138604237</v>
+        <v>0.964007239108177</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>10109</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5133</v>
+        <v>4879</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18810</v>
+        <v>18914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03284296439587781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01667675513993293</v>
+        <v>0.01585223532018985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06111362570911499</v>
+        <v>0.0614509835231915</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -3813,19 +3813,19 @@
         <v>40540</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29339</v>
+        <v>29557</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53853</v>
+        <v>53694</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1148248248795617</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08310049039615509</v>
+        <v>0.08371651895095576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1525327814212043</v>
+        <v>0.1520830877562709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -3834,19 +3834,19 @@
         <v>50649</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38116</v>
+        <v>37604</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66370</v>
+        <v>66170</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07664150514679638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0576767751609614</v>
+        <v>0.05690276966377177</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1004310022435826</v>
+        <v>0.100128432710388</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>297686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288985</v>
+        <v>288881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>302662</v>
+        <v>302916</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9671570356041223</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9388863742908848</v>
+        <v>0.9385490164768084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9833232448600671</v>
+        <v>0.9841477646798101</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>304</v>
@@ -3884,19 +3884,19 @@
         <v>312519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>299206</v>
+        <v>299365</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>323720</v>
+        <v>323502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8851751751204383</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8474672185787956</v>
+        <v>0.8479169122437292</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9168995096038446</v>
+        <v>0.9162834810490443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>576</v>
@@ -3905,19 +3905,19 @@
         <v>610205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>594484</v>
+        <v>594684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>622738</v>
+        <v>623250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9233584948532036</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8995689977564175</v>
+        <v>0.899871567289611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.942323224839039</v>
+        <v>0.9430972303362282</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>12609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7115</v>
+        <v>6750</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21127</v>
+        <v>20815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05067672223067438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02859623560352569</v>
+        <v>0.02712858647057027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08491017482112917</v>
+        <v>0.08365579525771781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -4030,19 +4030,19 @@
         <v>72777</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58827</v>
+        <v>58602</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88738</v>
+        <v>89048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1881741474182399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1521040338702603</v>
+        <v>0.1515241927623349</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2294439501184512</v>
+        <v>0.2302442218061392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -4051,19 +4051,19 @@
         <v>85386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70078</v>
+        <v>68601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104051</v>
+        <v>102672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1343455586710689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1102602392949872</v>
+        <v>0.1079355666755223</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1637120083968991</v>
+        <v>0.1615433842510209</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>236210</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227692</v>
+        <v>228004</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241704</v>
+        <v>242069</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9493232777693256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9150898251788708</v>
+        <v>0.9163442047422822</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9714037643964744</v>
+        <v>0.9728714135294297</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>283</v>
@@ -4101,19 +4101,19 @@
         <v>313976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298015</v>
+        <v>297705</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>327926</v>
+        <v>328151</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8118258525817601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7705560498815489</v>
+        <v>0.7697557781938609</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8478959661297397</v>
+        <v>0.8484758072376651</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -4122,19 +4122,19 @@
         <v>550186</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>531521</v>
+        <v>532900</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>565494</v>
+        <v>566971</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8656544413289311</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.836287991603101</v>
+        <v>0.8384566157489788</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8897397607050129</v>
+        <v>0.8920644333244776</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>70022</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02048655542797477</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>205</v>
@@ -4247,19 +4247,19 @@
         <v>222959</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06289104615634736</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>265</v>
@@ -4268,19 +4268,19 @@
         <v>292981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04207617140576082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3347919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3327914</v>
+        <v>3328097</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3364629</v>
+        <v>3365214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9795134445720253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9736604578657597</v>
+        <v>0.973713949888579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9844023624499301</v>
+        <v>0.9845734760422939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3081</v>
@@ -4318,19 +4318,19 @@
         <v>3322200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3291195</v>
+        <v>3292444</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3352655</v>
+        <v>3351998</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9371089538436527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9283632437610266</v>
+        <v>0.928715465083795</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9456994494788453</v>
+        <v>0.9455141487732274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6222</v>
@@ -4339,19 +4339,19 @@
         <v>6670119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6634182</v>
+        <v>6629119</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6703581</v>
+        <v>6704526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9579238285942392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.952762638331799</v>
+        <v>0.952035657324981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9627293841295427</v>
+        <v>0.9628650659074777</v>
       </c>
     </row>
     <row r="27">
@@ -4702,16 +4702,16 @@
         <v>997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11732</v>
+        <v>10861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01162270012833001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00251896416912826</v>
+        <v>0.00251960556280102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02964468129496445</v>
+        <v>0.02744495534764093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4720,19 +4720,19 @@
         <v>4600</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12007</v>
+        <v>11607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005642345624611672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001214358698206682</v>
+        <v>0.001229261614004613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01472881157481573</v>
+        <v>0.01423817361848194</v>
       </c>
     </row>
     <row r="5">
@@ -4762,7 +4762,7 @@
         <v>391155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384023</v>
+        <v>384894</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>394758</v>
@@ -4771,10 +4771,10 @@
         <v>0.98837729987167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9703553187050357</v>
+        <v>0.9725550446523591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9974810358308717</v>
+        <v>0.9974803944371989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>793</v>
@@ -4783,19 +4783,19 @@
         <v>810618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803211</v>
+        <v>803611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814228</v>
+        <v>814216</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9943576543753884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9852711884251837</v>
+        <v>0.985761826381518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987856413017933</v>
+        <v>0.9987707383859953</v>
       </c>
     </row>
     <row r="6">
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6957</v>
+        <v>6803</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003368649404312429</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01178245527160856</v>
+        <v>0.01152041851921833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4908,19 +4908,19 @@
         <v>6535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2794</v>
+        <v>2784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13146</v>
+        <v>12954</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01159645913874603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00495878947263103</v>
+        <v>0.0049409787370002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02332720934556906</v>
+        <v>0.02298586074115757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4929,19 +4929,19 @@
         <v>8524</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4647</v>
+        <v>4595</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15387</v>
+        <v>15184</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007386474111122586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004026983520180244</v>
+        <v>0.003981321207165261</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01333354750339993</v>
+        <v>0.01315757480370694</v>
       </c>
     </row>
     <row r="8">
@@ -4958,7 +4958,7 @@
         <v>588507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583539</v>
+        <v>583693</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4967,7 +4967,7 @@
         <v>0.9966313505956875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9882175447283915</v>
+        <v>0.9884795814807831</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4979,19 +4979,19 @@
         <v>557009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>550398</v>
+        <v>550590</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>560750</v>
+        <v>560760</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9884035408612539</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9766727906544311</v>
+        <v>0.977014139258842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950412105273689</v>
+        <v>0.9950590212629998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1137</v>
@@ -5000,19 +5000,19 @@
         <v>1145516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1138653</v>
+        <v>1138856</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1149393</v>
+        <v>1149445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9926135258888774</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9866664524966006</v>
+        <v>0.9868424251962931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9959730164798197</v>
+        <v>0.9960186787928347</v>
       </c>
     </row>
     <row r="9">
@@ -5104,19 +5104,19 @@
         <v>5558</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1872</v>
+        <v>1884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13074</v>
+        <v>12720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008306088438715258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002798167236666765</v>
+        <v>0.002815999424621075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954037910876219</v>
+        <v>0.01901058380666309</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5125,19 +5125,19 @@
         <v>14950</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8673</v>
+        <v>8595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23580</v>
+        <v>23904</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02260331226944872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01311411103646173</v>
+        <v>0.01299552602213882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03565245815927047</v>
+        <v>0.03614269253662672</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -5146,19 +5146,19 @@
         <v>20507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12996</v>
+        <v>13045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30852</v>
+        <v>31008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01541327273897094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009767958585011539</v>
+        <v>0.009804883442513693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02318855927321718</v>
+        <v>0.0233060054626779</v>
       </c>
     </row>
     <row r="11">
@@ -5175,19 +5175,19 @@
         <v>663539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656023</v>
+        <v>656377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667225</v>
+        <v>667213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9916939115612847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9804596208912378</v>
+        <v>0.9809894161933369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972018327633333</v>
+        <v>0.9971840005753789</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -5196,19 +5196,19 @@
         <v>646436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637806</v>
+        <v>637482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652713</v>
+        <v>652791</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9773966877305513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643475418407305</v>
+        <v>0.9638573074633732</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868858889635383</v>
+        <v>0.9870044739778612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1282</v>
@@ -5217,19 +5217,19 @@
         <v>1309976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1299631</v>
+        <v>1299475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317487</v>
+        <v>1317438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.984586727261029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9768114407267832</v>
+        <v>0.9766939945373222</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9902320414149884</v>
+        <v>0.9901951165574864</v>
       </c>
     </row>
     <row r="12">
@@ -5321,19 +5321,19 @@
         <v>18782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11285</v>
+        <v>11233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30217</v>
+        <v>30546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02907287031795421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01746842741286581</v>
+        <v>0.01738774926467669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0467723598374277</v>
+        <v>0.04728193595815692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -5342,19 +5342,19 @@
         <v>45422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33793</v>
+        <v>33921</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59516</v>
+        <v>59999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06998010904934489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05206381830119825</v>
+        <v>0.05226074480832302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09169315882706201</v>
+        <v>0.09243767245877559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -5363,19 +5363,19 @@
         <v>64205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49758</v>
+        <v>50406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81984</v>
+        <v>81050</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04957432032207578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03841931401431094</v>
+        <v>0.03892015612363596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06330214374591538</v>
+        <v>0.06258079270431782</v>
       </c>
     </row>
     <row r="14">
@@ -5392,19 +5392,19 @@
         <v>627266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>615831</v>
+        <v>615502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>634763</v>
+        <v>634815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9709271296820458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9532276401625728</v>
+        <v>0.9527180640418432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9825315725871343</v>
+        <v>0.9826122507353233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>559</v>
@@ -5413,19 +5413,19 @@
         <v>603655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>589561</v>
+        <v>589078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615284</v>
+        <v>615156</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9300198909506551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9083068411729379</v>
+        <v>0.9075623275412243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9479361816988018</v>
+        <v>0.9477392551916763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1124</v>
@@ -5434,19 +5434,19 @@
         <v>1230920</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1213141</v>
+        <v>1214075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1245367</v>
+        <v>1244719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9504256796779242</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9366978562540846</v>
+        <v>0.9374192072956822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.961580685985689</v>
+        <v>0.961079843876364</v>
       </c>
     </row>
     <row r="15">
@@ -5538,19 +5538,19 @@
         <v>17614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9786</v>
+        <v>9401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29915</v>
+        <v>28048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03685543255431679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02047580541434854</v>
+        <v>0.01966987275894396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06259367258133222</v>
+        <v>0.05868855668295771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -5559,19 +5559,19 @@
         <v>66031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52284</v>
+        <v>49891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82839</v>
+        <v>82434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1328990324055803</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1052305975241237</v>
+        <v>0.1004146698776002</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1667278740733088</v>
+        <v>0.16591444962098</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -5580,19 +5580,19 @@
         <v>83645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66865</v>
+        <v>67314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103523</v>
+        <v>105121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08580986646787774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06859609764161705</v>
+        <v>0.06905666036066729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1062028250137432</v>
+        <v>0.1078423354372401</v>
       </c>
     </row>
     <row r="17">
@@ -5609,19 +5609,19 @@
         <v>460304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448003</v>
+        <v>449870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>468132</v>
+        <v>468517</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9631445674456832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9374063274186677</v>
+        <v>0.9413114433170422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9795241945856514</v>
+        <v>0.9803301272410561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>375</v>
@@ -5630,19 +5630,19 @@
         <v>430818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>414010</v>
+        <v>414415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>444565</v>
+        <v>446958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8671009675944197</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8332721259266911</v>
+        <v>0.83408555037902</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8947694024758762</v>
+        <v>0.8995853301223997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>785</v>
@@ -5651,19 +5651,19 @@
         <v>891122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>871244</v>
+        <v>869646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>907902</v>
+        <v>907453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9141901335321223</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8937971749862568</v>
+        <v>0.8921576645627599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9314039023583832</v>
+        <v>0.9309433396393327</v>
       </c>
     </row>
     <row r="18">
@@ -5755,19 +5755,19 @@
         <v>23983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16317</v>
+        <v>16455</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34395</v>
+        <v>35260</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07173355768741738</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04880480820988829</v>
+        <v>0.04921714560897443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1028775238207619</v>
+        <v>0.1054644211131038</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -5776,19 +5776,19 @@
         <v>66065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52284</v>
+        <v>51386</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84093</v>
+        <v>82021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1748859101390535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1384050837260282</v>
+        <v>0.1360281288463518</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2226093471769892</v>
+        <v>0.2171227973408715</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -5797,19 +5797,19 @@
         <v>90048</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73368</v>
+        <v>74303</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109650</v>
+        <v>110299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.126455474441259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1030315432172106</v>
+        <v>0.1043448410236534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1539823641963334</v>
+        <v>0.154893731574089</v>
       </c>
     </row>
     <row r="20">
@@ -5826,19 +5826,19 @@
         <v>310347</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>299935</v>
+        <v>299070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>318013</v>
+        <v>317875</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9282664423125826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.897122476179238</v>
+        <v>0.8945355788868959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9511951917901116</v>
+        <v>0.9507828543910254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -5847,19 +5847,19 @@
         <v>311697</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293669</v>
+        <v>295741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325478</v>
+        <v>326376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8251140898609465</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7773906528230108</v>
+        <v>0.7828772026591285</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8615949162739718</v>
+        <v>0.863971871153648</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>593</v>
@@ -5868,19 +5868,19 @@
         <v>622044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602442</v>
+        <v>601793</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>638724</v>
+        <v>637789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8735445255587411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8460176358036668</v>
+        <v>0.8451062684259113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8969684567827897</v>
+        <v>0.895655158976347</v>
       </c>
     </row>
     <row r="21">
@@ -5972,19 +5972,19 @@
         <v>22098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14368</v>
+        <v>14792</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32024</v>
+        <v>31899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08598642658722315</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05590651072609185</v>
+        <v>0.05755591190733331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1246083015532655</v>
+        <v>0.1241202771476563</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -5993,19 +5993,19 @@
         <v>62878</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46766</v>
+        <v>46303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80365</v>
+        <v>81133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.157129624875163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1168662418045554</v>
+        <v>0.1157080926799481</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.200828829291871</v>
+        <v>0.2027467567780857</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -6014,19 +6014,19 @@
         <v>84977</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68259</v>
+        <v>68818</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104068</v>
+        <v>105243</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1293076865617936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1038683634321145</v>
+        <v>0.1047188229957437</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.158357988747401</v>
+        <v>0.1601458599782654</v>
       </c>
     </row>
     <row r="23">
@@ -6043,19 +6043,19 @@
         <v>234900</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224974</v>
+        <v>225099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242630</v>
+        <v>242206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9140135734127769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8753916984467337</v>
+        <v>0.8758797228523436</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9440934892739069</v>
+        <v>0.9424440880926667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>252</v>
@@ -6064,19 +6064,19 @@
         <v>337291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>319804</v>
+        <v>319036</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353403</v>
+        <v>353866</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.842870375124837</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7991711707081293</v>
+        <v>0.7972532432219147</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8831337581954448</v>
+        <v>0.8842919073200519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>530</v>
@@ -6085,19 +6085,19 @@
         <v>572190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>553099</v>
+        <v>551924</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>588908</v>
+        <v>588349</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8706923134382064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.841642011252599</v>
+        <v>0.8398541400217346</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8961316365678856</v>
+        <v>0.8952811770042562</v>
       </c>
     </row>
     <row r="24">
@@ -6189,19 +6189,19 @@
         <v>90024</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02652175419494341</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>239</v>
@@ -6210,19 +6210,19 @@
         <v>266481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07518073133574005</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>325</v>
@@ -6231,19 +6231,19 @@
         <v>356505</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05137785220015152</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>3304326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3282221</v>
+        <v>3283708</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3323852</v>
+        <v>3322866</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9734782458050566</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9669659651522162</v>
+        <v>0.9674041640596804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9792308192126321</v>
+        <v>0.9789402535491248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3099</v>
@@ -6281,19 +6281,19 @@
         <v>3278061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3242946</v>
+        <v>3242151</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3308990</v>
+        <v>3308253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9248192686642599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9149126937320875</v>
+        <v>0.9146884047061952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9335452347174771</v>
+        <v>0.93333726951396</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6244</v>
@@ -6302,19 +6302,19 @@
         <v>6582387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6542552</v>
+        <v>6544320</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6618306</v>
+        <v>6619968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9486221477998484</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9428813981002135</v>
+        <v>0.9431361199479994</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9537987447514951</v>
+        <v>0.9540381699424921</v>
       </c>
     </row>
     <row r="27">
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19475</v>
+        <v>16722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01250118920492273</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04775610874553093</v>
+        <v>0.04100545398526275</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6670,19 +6670,19 @@
         <v>12690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4587</v>
+        <v>4425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29766</v>
+        <v>27990</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03500580391153499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01265226077422828</v>
+        <v>0.0122070390218651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08210926764684105</v>
+        <v>0.07721230758022196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -6691,19 +6691,19 @@
         <v>17788</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8172</v>
+        <v>8380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38384</v>
+        <v>33802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02309204857188818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01060894408630674</v>
+        <v>0.01087935317112891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04982934951534237</v>
+        <v>0.0438809802625922</v>
       </c>
     </row>
     <row r="5">
@@ -6720,7 +6720,7 @@
         <v>402695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>388318</v>
+        <v>391071</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6729,7 +6729,7 @@
         <v>0.9874988107950774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.952243891254469</v>
+        <v>0.9589945460147371</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6741,19 +6741,19 @@
         <v>349822</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332746</v>
+        <v>334522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357925</v>
+        <v>358087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.964994196088465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9178907323531592</v>
+        <v>0.9227876924197781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9873477392257717</v>
+        <v>0.9877929609781347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>371</v>
@@ -6762,19 +6762,19 @@
         <v>752517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731921</v>
+        <v>736503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762133</v>
+        <v>761925</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.976907951428112</v>
+        <v>0.9769079514281117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9501706504846572</v>
+        <v>0.9561190197374079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9893910559136933</v>
+        <v>0.9891206468288711</v>
       </c>
     </row>
     <row r="6">
@@ -6866,19 +6866,19 @@
         <v>5364</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1352</v>
+        <v>1378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13039</v>
+        <v>13156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01124782167697524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002835897398698068</v>
+        <v>0.002889108003038923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02734086718643495</v>
+        <v>0.02758677164709434</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -6887,19 +6887,19 @@
         <v>7470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2897</v>
+        <v>3060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14676</v>
+        <v>16565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01490703566905699</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005781837227856226</v>
+        <v>0.006107359567682213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02928756730174493</v>
+        <v>0.03305884320901819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -6908,19 +6908,19 @@
         <v>12834</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6280</v>
+        <v>6514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23507</v>
+        <v>23493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01312268896715098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00642183544268672</v>
+        <v>0.006661004904417736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02403611399235763</v>
+        <v>0.02402162552313222</v>
       </c>
     </row>
     <row r="8">
@@ -6937,19 +6937,19 @@
         <v>471526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>463851</v>
+        <v>463734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475538</v>
+        <v>475512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9887521783230246</v>
+        <v>0.9887521783230249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9726591328135649</v>
+        <v>0.9724132283529056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971641026013018</v>
+        <v>0.9971108919969611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -6958,19 +6958,19 @@
         <v>493613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>486407</v>
+        <v>484518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498186</v>
+        <v>498023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.985092964330943</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.970712432698255</v>
+        <v>0.966941156790982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942181627721437</v>
+        <v>0.9938926404323177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>752</v>
@@ -6979,19 +6979,19 @@
         <v>965139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>954466</v>
+        <v>954480</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971693</v>
+        <v>971459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.986877311032849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9759638860076423</v>
+        <v>0.9759783744768676</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9935781645573133</v>
+        <v>0.9933389950955822</v>
       </c>
     </row>
     <row r="9">
@@ -7083,19 +7083,19 @@
         <v>15641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8434</v>
+        <v>8047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27369</v>
+        <v>27206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0251930811608538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01358466871211697</v>
+        <v>0.01296119222358921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04408324236290317</v>
+        <v>0.04382187590810166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -7104,19 +7104,19 @@
         <v>25014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16793</v>
+        <v>18107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34030</v>
+        <v>33583</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04020688586907121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02699181569746738</v>
+        <v>0.02910481917992187</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05469782960147414</v>
+        <v>0.05398024198920191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -7125,19 +7125,19 @@
         <v>40655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29554</v>
+        <v>30659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56129</v>
+        <v>55252</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0327078494778579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02377672977873811</v>
+        <v>0.0246660112248948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04515659377472211</v>
+        <v>0.04445168684227047</v>
       </c>
     </row>
     <row r="11">
@@ -7154,19 +7154,19 @@
         <v>605196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>593468</v>
+        <v>593631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612403</v>
+        <v>612790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9748069188391463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9559167576370976</v>
+        <v>0.9561781240918984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9864153312878835</v>
+        <v>0.9870388077764106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>811</v>
@@ -7175,19 +7175,19 @@
         <v>597125</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>588109</v>
+        <v>588556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>605346</v>
+        <v>604032</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9597931141309287</v>
+        <v>0.9597931141309289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9453021703985258</v>
+        <v>0.9460197580107981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9730081843025328</v>
+        <v>0.9708951808200781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1345</v>
@@ -7196,19 +7196,19 @@
         <v>1202321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1186847</v>
+        <v>1187724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1213422</v>
+        <v>1212317</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.967292150522142</v>
+        <v>0.9672921505221422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548434062252779</v>
+        <v>0.95554831315773</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9762232702212618</v>
+        <v>0.9753339887751052</v>
       </c>
     </row>
     <row r="12">
@@ -7300,19 +7300,19 @@
         <v>33185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22914</v>
+        <v>22963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46303</v>
+        <v>47557</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04736503981473025</v>
+        <v>0.04736503981473024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03270580245244144</v>
+        <v>0.03277528056672056</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0660885193650307</v>
+        <v>0.06787876475051659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -7321,19 +7321,19 @@
         <v>56112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44496</v>
+        <v>45435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68162</v>
+        <v>68510</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07622061297828361</v>
+        <v>0.0762206129782836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0604417338558298</v>
+        <v>0.06171801732307228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09258922744119186</v>
+        <v>0.09306199324366141</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -7342,19 +7342,19 @@
         <v>89297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75025</v>
+        <v>75248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107378</v>
+        <v>107217</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06214991539777134</v>
+        <v>0.06214991539777136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05221715096768509</v>
+        <v>0.05237194260351483</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07473417671430826</v>
+        <v>0.07462212769867338</v>
       </c>
     </row>
     <row r="14">
@@ -7371,19 +7371,19 @@
         <v>667432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>654314</v>
+        <v>653060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>677703</v>
+        <v>677654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9526349601852699</v>
+        <v>0.9526349601852698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9339114806349689</v>
+        <v>0.9321212352494834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9672941975475585</v>
+        <v>0.9672247194332795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1052</v>
@@ -7392,19 +7392,19 @@
         <v>680066</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>668016</v>
+        <v>667668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>691682</v>
+        <v>690743</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9237793870217166</v>
+        <v>0.9237793870217165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.907410772558807</v>
+        <v>0.9069380067563383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9395582661441696</v>
+        <v>0.9382819826769276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1687</v>
@@ -7413,19 +7413,19 @@
         <v>1347498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1329417</v>
+        <v>1329578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1361770</v>
+        <v>1361547</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9378500846022287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9252658232856915</v>
+        <v>0.9253778723013267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9477828490323147</v>
+        <v>0.9476280573964853</v>
       </c>
     </row>
     <row r="15">
@@ -7517,19 +7517,19 @@
         <v>39054</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28736</v>
+        <v>29027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51433</v>
+        <v>50625</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06419590425342941</v>
+        <v>0.0641959042534294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0472360662937891</v>
+        <v>0.04771407838138291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08454419951739933</v>
+        <v>0.08321522899681758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -7538,19 +7538,19 @@
         <v>87169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74518</v>
+        <v>75452</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100766</v>
+        <v>102276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1436688511774462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1228176266445102</v>
+        <v>0.1243572543007188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1660800101490679</v>
+        <v>0.1685685193307443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -7559,19 +7559,19 @@
         <v>126223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106998</v>
+        <v>109319</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143167</v>
+        <v>143868</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1038792214358418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08805757151430758</v>
+        <v>0.08996791519178179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1178243938406251</v>
+        <v>0.1184012988955817</v>
       </c>
     </row>
     <row r="17">
@@ -7588,19 +7588,19 @@
         <v>569305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>556926</v>
+        <v>557734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>579623</v>
+        <v>579332</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9358040957465708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9154558004826009</v>
+        <v>0.9167847710031825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.952763933706211</v>
+        <v>0.9522859216186167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>855</v>
@@ -7609,19 +7609,19 @@
         <v>519565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>505968</v>
+        <v>504458</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>532216</v>
+        <v>531282</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8563311488225536</v>
+        <v>0.8563311488225539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8339199898509327</v>
+        <v>0.8314314806692561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8771823733554901</v>
+        <v>0.8756427456992811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1474</v>
@@ -7630,19 +7630,19 @@
         <v>1088869</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1071925</v>
+        <v>1071224</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1108094</v>
+        <v>1105773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8961207785641582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8821756061593748</v>
+        <v>0.8815987011044183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9119424284856923</v>
+        <v>0.9100320848082184</v>
       </c>
     </row>
     <row r="18">
@@ -7734,19 +7734,19 @@
         <v>34113</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26007</v>
+        <v>26153</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45043</v>
+        <v>43537</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08379881045934347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06388577892901817</v>
+        <v>0.0642456759381165</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1106494517331741</v>
+        <v>0.1069506828161524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -7755,19 +7755,19 @@
         <v>72967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62111</v>
+        <v>61926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84535</v>
+        <v>83521</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1661501473032486</v>
+        <v>0.1661501473032485</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1414286951839027</v>
+        <v>0.1410077446864507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1924908631324908</v>
+        <v>0.1901798162742731</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -7776,19 +7776,19 @@
         <v>107080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92873</v>
+        <v>93360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122160</v>
+        <v>122741</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1265357051659232</v>
+        <v>0.1265357051659233</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1097466445049087</v>
+        <v>0.1103228722512012</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1443547234703589</v>
+        <v>0.1450416155956152</v>
       </c>
     </row>
     <row r="20">
@@ -7805,19 +7805,19 @@
         <v>372967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>362037</v>
+        <v>363543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>381073</v>
+        <v>380927</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9162011895406564</v>
+        <v>0.9162011895406565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8893505482668257</v>
+        <v>0.8930493171838476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9361142210709814</v>
+        <v>0.9357543240618833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>692</v>
@@ -7826,19 +7826,19 @@
         <v>366199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354631</v>
+        <v>355645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>377055</v>
+        <v>377240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8338498526967515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8075091368675095</v>
+        <v>0.8098201837257268</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8585713048160972</v>
+        <v>0.8589922553135492</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1211</v>
@@ -7847,19 +7847,19 @@
         <v>739166</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>724086</v>
+        <v>723505</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>753373</v>
+        <v>752886</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8734642948340767</v>
+        <v>0.8734642948340768</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8556452765296411</v>
+        <v>0.8549583844043849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8902533554950915</v>
+        <v>0.8896771277487988</v>
       </c>
     </row>
     <row r="21">
@@ -7951,19 +7951,19 @@
         <v>49317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39111</v>
+        <v>39412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60821</v>
+        <v>61236</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1592394582083937</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1262861780255981</v>
+        <v>0.1272572283514875</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1963834020748447</v>
+        <v>0.197726029493094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>240</v>
@@ -7972,19 +7972,19 @@
         <v>125807</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112529</v>
+        <v>112130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140427</v>
+        <v>140096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2716756295767261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2430021757057386</v>
+        <v>0.242139420324018</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3032471160576117</v>
+        <v>0.3025311778846161</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>319</v>
@@ -7993,19 +7993,19 @@
         <v>175124</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159471</v>
+        <v>157041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>193237</v>
+        <v>192267</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2266152315702011</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2063597665818938</v>
+        <v>0.2032146730796282</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2500534750703092</v>
+        <v>0.2487990285564191</v>
       </c>
     </row>
     <row r="23">
@@ -8022,19 +8022,19 @@
         <v>260386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>248882</v>
+        <v>248467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>270592</v>
+        <v>270291</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8407605417916064</v>
+        <v>0.8407605417916062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8036165979251553</v>
+        <v>0.8022739705069059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8737138219744018</v>
+        <v>0.8727427716485127</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>638</v>
@@ -8043,19 +8043,19 @@
         <v>337272</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322652</v>
+        <v>322983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>350550</v>
+        <v>350949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7283243704232739</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6967528839423882</v>
+        <v>0.6974688221153839</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7569978242942613</v>
+        <v>0.757860579675982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1016</v>
@@ -8064,19 +8064,19 @@
         <v>597658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>579545</v>
+        <v>580515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>613311</v>
+        <v>615741</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7733847684297988</v>
+        <v>0.7733847684297989</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7499465249296908</v>
+        <v>0.7512009714435812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7936402334181061</v>
+        <v>0.7967853269203721</v>
       </c>
     </row>
     <row r="24">
@@ -8168,19 +8168,19 @@
         <v>181771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05147464840137173</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>654</v>
@@ -8189,19 +8189,19 @@
         <v>387229</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1037900395518137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>875</v>
@@ -8210,19 +8210,19 @@
         <v>569001</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07835132561148776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="26">
@@ -8239,19 +8239,19 @@
         <v>3349509</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3321135</v>
+        <v>3322800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3373752</v>
+        <v>3374034</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9485253515986284</v>
+        <v>0.9485253515986282</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.940490372586117</v>
+        <v>0.9409619038371352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9553906733595974</v>
+        <v>0.9554704421749753</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4703</v>
@@ -8260,19 +8260,19 @@
         <v>3343662</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3309588</v>
+        <v>3312079</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3372145</v>
+        <v>3371179</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8962099604481862</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8870770801496853</v>
+        <v>0.8877447374064799</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9038445307945595</v>
+        <v>0.903585368016557</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7856</v>
@@ -8281,19 +8281,19 @@
         <v>6693169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6654748</v>
+        <v>6651344</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6731357</v>
+        <v>6730444</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9216486743885123</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9163580413313372</v>
+        <v>0.9158893110108651</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9269070633851452</v>
+        <v>0.9267813256202749</v>
       </c>
     </row>
     <row r="27">
